--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1621487.002299548</v>
+        <v>1583756.066075279</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1854862.008498286</v>
+        <v>1430658.969273092</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7903192.579699641</v>
+        <v>7678555.799103436</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8258999.822647738</v>
+        <v>8362695.773142077</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.92768616564856</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.0402072469038</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.5449140062435</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>161.8021914044194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>43.56969910149505</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>180.250161098925</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5691233149489</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.244650486378</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.6680039163924</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>105.7114084053831</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>66.13883027455778</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>58.21675730194351</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>159.1358088219282</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8969404199999</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>144.2241925491413</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>147.3443088759843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.147052251815</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>106.9515815962103</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>234.2559520454603</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.1687147745199</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.0402072469038</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>77.2897208719489</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>65.43112461233133</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6680039163924</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>105.7114084053831</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>58.21675730194351</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.4419362657602</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8969404199999</v>
       </c>
       <c r="V15" t="n">
-        <v>67.97927039544935</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>98.35486132513435</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>213.4106622846845</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.92209716456409</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>133.4548648132225</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.932784358880737</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>101.0648684641362</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.4185579972129</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>50.28788303971709</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2283,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.91143958001572</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>12.08494332168437</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>324.6087503294435</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>90.27998741352613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,31 +2520,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>126.3298627762801</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>335.3138620892173</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>19.65541699476269</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2614,10 +2614,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.37301815329025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>196.1788370630662</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.4485127242843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.5310119231965</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>33.77936158462983</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>236.0631704379172</v>
       </c>
       <c r="D32" t="n">
-        <v>68.16986319857435</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,13 +3158,13 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>266.6210949690529</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>127.9394108880944</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>95.89210657414303</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.3743261851594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>323.2180416857421</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.314143056884304</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3705,28 +3705,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>139.8939792152983</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>4.553842565068744</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>163.8401654879224</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>61.03865437645878</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -3799,10 +3799,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>91.88618126841223</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3878,7 +3878,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>66.90225386148684</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>258.9290323586481</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>397.6260363559234</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>402.1399540591831</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,16 +4058,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>33.02876731823457</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.5310119231965</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>49.48986891968898</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>223.8243835520301</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>197.5294886147938</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>823.6204884591526</v>
+        <v>1370.512344102985</v>
       </c>
       <c r="C11" t="n">
-        <v>454.6579715187409</v>
+        <v>1370.512344102985</v>
       </c>
       <c r="D11" t="n">
-        <v>454.6579715187409</v>
+        <v>1370.512344102985</v>
       </c>
       <c r="E11" t="n">
-        <v>454.6579715187409</v>
+        <v>1370.512344102985</v>
       </c>
       <c r="F11" t="n">
-        <v>43.67206672913334</v>
+        <v>959.5264393133772</v>
       </c>
       <c r="G11" t="n">
-        <v>43.67206672913334</v>
+        <v>541.3040077508481</v>
       </c>
       <c r="H11" t="n">
-        <v>43.67206672913334</v>
+        <v>211.4606602697941</v>
       </c>
       <c r="I11" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="J11" t="n">
-        <v>159.4399229620831</v>
+        <v>142.2784284043287</v>
       </c>
       <c r="K11" t="n">
-        <v>453.6907339820816</v>
+        <v>404.2860330767008</v>
       </c>
       <c r="L11" t="n">
-        <v>457.5269096262306</v>
+        <v>781.6062625122283</v>
       </c>
       <c r="M11" t="n">
-        <v>938.4832297842662</v>
+        <v>1218.054265057083</v>
       </c>
       <c r="N11" t="n">
-        <v>1322.799691415619</v>
+        <v>1646.932455029639</v>
       </c>
       <c r="O11" t="n">
-        <v>1725.297565081134</v>
+        <v>2006.722330436427</v>
       </c>
       <c r="P11" t="n">
-        <v>2031.145805229697</v>
+        <v>2276.120282155626</v>
       </c>
       <c r="Q11" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="R11" t="n">
-        <v>2183.603336456667</v>
+        <v>2357.195367709436</v>
       </c>
       <c r="S11" t="n">
-        <v>2183.603336456667</v>
+        <v>2175.124497912542</v>
       </c>
       <c r="T11" t="n">
-        <v>2183.603336456667</v>
+        <v>1955.357706685321</v>
       </c>
       <c r="U11" t="n">
-        <v>1929.841551094759</v>
+        <v>1701.575231446555</v>
       </c>
       <c r="V11" t="n">
-        <v>1598.778663751188</v>
+        <v>1370.512344102985</v>
       </c>
       <c r="W11" t="n">
-        <v>1246.010008481074</v>
+        <v>1370.512344102985</v>
       </c>
       <c r="X11" t="n">
-        <v>1246.010008481074</v>
+        <v>1370.512344102985</v>
       </c>
       <c r="Y11" t="n">
-        <v>855.8706765052623</v>
+        <v>1370.512344102985</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>741.7313843977472</v>
+        <v>988.8181436977267</v>
       </c>
       <c r="C12" t="n">
-        <v>741.7313843977472</v>
+        <v>814.3651144165997</v>
       </c>
       <c r="D12" t="n">
-        <v>592.7969747364959</v>
+        <v>665.4307047553484</v>
       </c>
       <c r="E12" t="n">
-        <v>433.5595197310404</v>
+        <v>506.1932497498929</v>
       </c>
       <c r="F12" t="n">
-        <v>287.0249617579253</v>
+        <v>359.6586917767778</v>
       </c>
       <c r="G12" t="n">
-        <v>149.1148487041915</v>
+        <v>221.610202972341</v>
       </c>
       <c r="H12" t="n">
-        <v>43.67206672913334</v>
+        <v>114.8310025628631</v>
       </c>
       <c r="I12" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="J12" t="n">
-        <v>43.67206672913334</v>
+        <v>110.4679539405999</v>
       </c>
       <c r="K12" t="n">
-        <v>298.9193871702319</v>
+        <v>343.8152837178556</v>
       </c>
       <c r="L12" t="n">
-        <v>703.5353052659037</v>
+        <v>718.9839617392809</v>
       </c>
       <c r="M12" t="n">
-        <v>766.6342057114347</v>
+        <v>1009.775796676309</v>
       </c>
       <c r="N12" t="n">
-        <v>1235.149615955897</v>
+        <v>1528.229291887814</v>
       </c>
       <c r="O12" t="n">
-        <v>1675.285538976241</v>
+        <v>1936.097273643485</v>
       </c>
       <c r="P12" t="n">
-        <v>2011.53035259107</v>
+        <v>2246.44421960146</v>
       </c>
       <c r="Q12" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="R12" t="n">
-        <v>2133.389965868492</v>
+        <v>2342.400359426155</v>
       </c>
       <c r="S12" t="n">
-        <v>1975.216993512408</v>
+        <v>2181.657118191884</v>
       </c>
       <c r="T12" t="n">
-        <v>1776.338445635187</v>
+        <v>2181.657118191884</v>
       </c>
       <c r="U12" t="n">
-        <v>1548.168821606027</v>
+        <v>1953.478390494914</v>
       </c>
       <c r="V12" t="n">
-        <v>1313.016713374284</v>
+        <v>1718.326282263172</v>
       </c>
       <c r="W12" t="n">
-        <v>1058.779356646082</v>
+        <v>1572.645279688281</v>
       </c>
       <c r="X12" t="n">
-        <v>1058.779356646082</v>
+        <v>1364.793779482749</v>
       </c>
       <c r="Y12" t="n">
-        <v>909.9467214178153</v>
+        <v>1157.033480717795</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="C13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="D13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="E13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="F13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="G13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="H13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="I13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="J13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="K13" t="n">
-        <v>99.97425979540148</v>
+        <v>91.11630857004698</v>
       </c>
       <c r="L13" t="n">
-        <v>227.5481173565599</v>
+        <v>201.7859297972473</v>
       </c>
       <c r="M13" t="n">
-        <v>372.4459860745899</v>
+        <v>328.8606514499452</v>
       </c>
       <c r="N13" t="n">
-        <v>519.3331237590189</v>
+        <v>458.3484366695635</v>
       </c>
       <c r="O13" t="n">
-        <v>638.9908742682591</v>
+        <v>561.9350690107481</v>
       </c>
       <c r="P13" t="n">
-        <v>717.8580691152032</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="Q13" t="n">
-        <v>717.8580691152032</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="R13" t="n">
-        <v>569.7114105493872</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="S13" t="n">
-        <v>569.7114105493872</v>
+        <v>410.7404921037526</v>
       </c>
       <c r="T13" t="n">
-        <v>569.7114105493872</v>
+        <v>302.7085915015199</v>
       </c>
       <c r="U13" t="n">
-        <v>569.7114105493872</v>
+        <v>302.7085915015199</v>
       </c>
       <c r="V13" t="n">
-        <v>333.089236766094</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="W13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="X13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>935.3186674876483</v>
+        <v>1210.300486063157</v>
       </c>
       <c r="C14" t="n">
-        <v>935.3186674876483</v>
+        <v>1210.300486063157</v>
       </c>
       <c r="D14" t="n">
-        <v>935.3186674876483</v>
+        <v>852.0347874564063</v>
       </c>
       <c r="E14" t="n">
-        <v>935.3186674876483</v>
+        <v>466.2465348581621</v>
       </c>
       <c r="F14" t="n">
-        <v>524.3327626980408</v>
+        <v>466.2465348581621</v>
       </c>
       <c r="G14" t="n">
-        <v>524.3327626980408</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="H14" t="n">
-        <v>197.1380427340437</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="I14" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="J14" t="n">
-        <v>159.4399229620831</v>
+        <v>142.2784284043286</v>
       </c>
       <c r="K14" t="n">
-        <v>453.6907339820816</v>
+        <v>404.2860330767008</v>
       </c>
       <c r="L14" t="n">
-        <v>871.0115120311765</v>
+        <v>781.6062625122286</v>
       </c>
       <c r="M14" t="n">
-        <v>1351.967832189212</v>
+        <v>1218.054265057083</v>
       </c>
       <c r="N14" t="n">
-        <v>1826.074530885943</v>
+        <v>1646.932455029639</v>
       </c>
       <c r="O14" t="n">
-        <v>2183.603336456667</v>
+        <v>2006.722330436426</v>
       </c>
       <c r="P14" t="n">
-        <v>2183.603336456667</v>
+        <v>2276.120282155626</v>
       </c>
       <c r="Q14" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="R14" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="S14" t="n">
-        <v>2007.425848770837</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="T14" t="n">
-        <v>2007.425848770837</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="U14" t="n">
-        <v>1753.664063408929</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="V14" t="n">
-        <v>1422.601176065358</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="W14" t="n">
-        <v>1069.832520795244</v>
+        <v>2048.436509511539</v>
       </c>
       <c r="X14" t="n">
-        <v>1069.832520795244</v>
+        <v>1674.970751250459</v>
       </c>
       <c r="Y14" t="n">
-        <v>1069.832520795244</v>
+        <v>1596.900326127279</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>840.3169470721183</v>
+        <v>841.5687315203425</v>
       </c>
       <c r="C15" t="n">
-        <v>665.8639177909913</v>
+        <v>667.1157022392155</v>
       </c>
       <c r="D15" t="n">
-        <v>516.92950812974</v>
+        <v>518.1812925779642</v>
       </c>
       <c r="E15" t="n">
-        <v>357.6920531242845</v>
+        <v>358.9438375725087</v>
       </c>
       <c r="F15" t="n">
-        <v>211.1574951511694</v>
+        <v>292.8517925095477</v>
       </c>
       <c r="G15" t="n">
-        <v>211.1574951511694</v>
+        <v>154.803303705111</v>
       </c>
       <c r="H15" t="n">
-        <v>105.7147131761113</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="I15" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="J15" t="n">
-        <v>118.9292291292632</v>
+        <v>110.4679539405999</v>
       </c>
       <c r="K15" t="n">
-        <v>374.1765495703617</v>
+        <v>343.8152837178556</v>
       </c>
       <c r="L15" t="n">
-        <v>778.7924676660335</v>
+        <v>718.9839617392809</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.939381224064</v>
+        <v>1208.76733506725</v>
       </c>
       <c r="N15" t="n">
-        <v>1407.222599821494</v>
+        <v>1528.229291887814</v>
       </c>
       <c r="O15" t="n">
-        <v>1847.358522841838</v>
+        <v>1936.097273643485</v>
       </c>
       <c r="P15" t="n">
-        <v>2183.603336456667</v>
+        <v>2246.44421960146</v>
       </c>
       <c r="Q15" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="R15" t="n">
-        <v>2133.389965868492</v>
+        <v>2342.400359426155</v>
       </c>
       <c r="S15" t="n">
-        <v>1975.216993512408</v>
+        <v>2342.400359426155</v>
       </c>
       <c r="T15" t="n">
-        <v>1975.216993512408</v>
+        <v>2142.964060167811</v>
       </c>
       <c r="U15" t="n">
-        <v>1747.047369483248</v>
+        <v>1914.785332470841</v>
       </c>
       <c r="V15" t="n">
-        <v>1678.381439790875</v>
+        <v>1679.633224239099</v>
       </c>
       <c r="W15" t="n">
-        <v>1424.144083062673</v>
+        <v>1425.395867510897</v>
       </c>
       <c r="X15" t="n">
-        <v>1216.29258285714</v>
+        <v>1217.544367305364</v>
       </c>
       <c r="Y15" t="n">
-        <v>1008.532284092186</v>
+        <v>1009.784068540411</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.67206672913334</v>
+        <v>445.4021810632249</v>
       </c>
       <c r="C16" t="n">
-        <v>43.67206672913334</v>
+        <v>445.4021810632249</v>
       </c>
       <c r="D16" t="n">
-        <v>43.67206672913334</v>
+        <v>295.2855416508892</v>
       </c>
       <c r="E16" t="n">
-        <v>43.67206672913334</v>
+        <v>147.3724480684961</v>
       </c>
       <c r="F16" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="G16" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="H16" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="I16" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="J16" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563307</v>
       </c>
       <c r="K16" t="n">
-        <v>99.97425979540148</v>
+        <v>91.11630857004698</v>
       </c>
       <c r="L16" t="n">
-        <v>227.5481173565599</v>
+        <v>201.7859297972473</v>
       </c>
       <c r="M16" t="n">
-        <v>372.4459860745899</v>
+        <v>328.8606514499452</v>
       </c>
       <c r="N16" t="n">
-        <v>519.3331237590189</v>
+        <v>458.3484366695635</v>
       </c>
       <c r="O16" t="n">
-        <v>638.9908742682591</v>
+        <v>561.9350690107481</v>
       </c>
       <c r="P16" t="n">
-        <v>717.8580691152032</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="Q16" t="n">
-        <v>717.8580691152032</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="R16" t="n">
-        <v>717.8580691152032</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="S16" t="n">
-        <v>717.8580691152032</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="T16" t="n">
-        <v>490.5498817838049</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="U16" t="n">
-        <v>201.3762714383729</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="V16" t="n">
-        <v>201.3762714383729</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="W16" t="n">
-        <v>43.67206672913334</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="X16" t="n">
-        <v>43.67206672913334</v>
+        <v>627.0506458934647</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.67206672913334</v>
+        <v>627.0506458934647</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1584.923258067584</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1215.960741127172</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D17" t="n">
-        <v>857.6950425204218</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="E17" t="n">
-        <v>471.9067899221776</v>
+        <v>1161.155908118965</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>750.1700033293573</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2581.593030675419</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2581.593030675419</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2327.83124531351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2327.83124531351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1975.062590043396</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1975.062590043396</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1584.923258067584</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.7458755710942</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U19" t="n">
-        <v>409.5384547146243</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V19" t="n">
-        <v>409.5384547146243</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W19" t="n">
-        <v>409.5384547146243</v>
+        <v>576.0098161872033</v>
       </c>
       <c r="X19" t="n">
-        <v>409.5384547146243</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.7458755710942</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C20" t="n">
-        <v>412.2086804271149</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628377</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V20" t="n">
-        <v>1893.689751284806</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W20" t="n">
-        <v>1540.921096014692</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X20" t="n">
-        <v>1540.921096014692</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>509.2407200497801</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>281.9325327183818</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1494.154169929768</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="C23" t="n">
-        <v>1125.191652989356</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D23" t="n">
-        <v>766.9259543826058</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E23" t="n">
         <v>381.1377017843616</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6019,22 +6019,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862886</v>
+        <v>2453.735900406639</v>
       </c>
       <c r="U23" t="n">
-        <v>2212.181128500977</v>
+        <v>2199.97411504473</v>
       </c>
       <c r="V23" t="n">
-        <v>2212.181128500977</v>
+        <v>1868.91122770116</v>
       </c>
       <c r="W23" t="n">
-        <v>2212.181128500977</v>
+        <v>1516.142572431046</v>
       </c>
       <c r="X23" t="n">
-        <v>1884.29350190558</v>
+        <v>1516.142572431046</v>
       </c>
       <c r="Y23" t="n">
-        <v>1494.154169929768</v>
+        <v>1126.003240455234</v>
       </c>
     </row>
     <row r="24">
@@ -6050,10 +6050,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
@@ -6062,31 +6062,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>145.1348882986737</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>409.5384547146243</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V25" t="n">
-        <v>409.5384547146243</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9325327183818</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C26" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="D26" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="E26" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>818.9554664465411</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>400.991658344728</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>73.79693838073081</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6262,16 +6262,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982757</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y26" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="27">
@@ -6287,13 +6287,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6305,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>81.59249510651622</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>81.59249510651622</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X28" t="n">
-        <v>81.59249510651622</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1700.340352117536</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C29" t="n">
-        <v>1331.377835177124</v>
+        <v>1348.549746658564</v>
       </c>
       <c r="D29" t="n">
-        <v>1331.377835177124</v>
+        <v>990.2840480518139</v>
       </c>
       <c r="E29" t="n">
-        <v>945.5895825788796</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224076</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>1936.146930626914</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>1936.146930626914</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X29" t="n">
-        <v>1936.146930626914</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1700.340352117536</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961344</v>
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6548,37 +6548,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.3857151273829</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C31" t="n">
-        <v>138.3857151273829</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>138.3857151273829</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>138.3857151273829</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.3857151273829</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>919.5755868835438</v>
+        <v>1781.603107998156</v>
       </c>
       <c r="C32" t="n">
-        <v>919.5755868835438</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X32" t="n">
-        <v>1309.714918859356</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y32" t="n">
-        <v>919.5755868835438</v>
+        <v>2168.202948062278</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170832</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359562</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747049</v>
       </c>
       <c r="E33" t="n">
         <v>505.8730812692495</v>
@@ -6770,7 +6770,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6779,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,10 +6800,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>323.2572191628421</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>323.2572191628421</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1192.157102157134</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C35" t="n">
-        <v>823.1945852167225</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D35" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>1662.48357412947</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="X35" t="n">
-        <v>1289.01781586839</v>
+        <v>991.2778500677816</v>
       </c>
       <c r="Y35" t="n">
-        <v>1192.157102157134</v>
+        <v>601.1385180919699</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>261.3917961488083</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>261.3917961488083</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1567.641263708174</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2240.930324555267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1909.867437211697</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1557.098781941583</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X38" t="n">
-        <v>1557.098781941583</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y38" t="n">
-        <v>1166.959449965771</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7262,16 +7262,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>557.4050153476338</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>343.1165921657965</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>343.1165921657965</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U40" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1089.861374935673</v>
+        <v>793.1826313614433</v>
       </c>
       <c r="C41" t="n">
-        <v>720.8988579952613</v>
+        <v>793.1826313614433</v>
       </c>
       <c r="D41" t="n">
-        <v>362.6331593885108</v>
+        <v>793.1826313614433</v>
       </c>
       <c r="E41" t="n">
-        <v>197.1380427340437</v>
+        <v>793.1826313614433</v>
       </c>
       <c r="F41" t="n">
-        <v>197.1380427340437</v>
+        <v>793.1826313614433</v>
       </c>
       <c r="G41" t="n">
-        <v>197.1380427340437</v>
+        <v>375.2188232596302</v>
       </c>
       <c r="H41" t="n">
-        <v>197.1380427340437</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="I41" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="J41" t="n">
-        <v>159.4399229620831</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="K41" t="n">
-        <v>453.6907339820816</v>
+        <v>168.017722836743</v>
       </c>
       <c r="L41" t="n">
-        <v>871.0115120311765</v>
+        <v>585.3385008858378</v>
       </c>
       <c r="M41" t="n">
-        <v>1281.666447886752</v>
+        <v>1066.294821043873</v>
       </c>
       <c r="N41" t="n">
-        <v>1322.799691415619</v>
+        <v>1540.401519740605</v>
       </c>
       <c r="O41" t="n">
-        <v>1725.297565081134</v>
+        <v>1942.89939340612</v>
       </c>
       <c r="P41" t="n">
-        <v>2031.145805229697</v>
+        <v>2248.747633554683</v>
       </c>
       <c r="Q41" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="R41" t="n">
-        <v>2128.57464698716</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.39715930133</v>
+        <v>2339.549958340785</v>
       </c>
       <c r="T41" t="n">
-        <v>1733.762492273393</v>
+        <v>2120.915291312848</v>
       </c>
       <c r="U41" t="n">
-        <v>1480.000706911485</v>
+        <v>1867.15350595094</v>
       </c>
       <c r="V41" t="n">
-        <v>1480.000706911485</v>
+        <v>1536.090618607369</v>
       </c>
       <c r="W41" t="n">
-        <v>1480.000706911485</v>
+        <v>1183.321963337255</v>
       </c>
       <c r="X41" t="n">
-        <v>1480.000706911485</v>
+        <v>1183.321963337255</v>
       </c>
       <c r="Y41" t="n">
-        <v>1089.861374935673</v>
+        <v>793.1826313614433</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>810.7416317038161</v>
+        <v>900.9403919247725</v>
       </c>
       <c r="C42" t="n">
-        <v>636.2886024226891</v>
+        <v>808.1260674112248</v>
       </c>
       <c r="D42" t="n">
-        <v>487.3541927614378</v>
+        <v>659.1916577499735</v>
       </c>
       <c r="E42" t="n">
-        <v>328.1167377559823</v>
+        <v>499.9542027445181</v>
       </c>
       <c r="F42" t="n">
-        <v>181.5821797828672</v>
+        <v>353.4196447714031</v>
       </c>
       <c r="G42" t="n">
-        <v>43.67206672913334</v>
+        <v>215.5095317176692</v>
       </c>
       <c r="H42" t="n">
-        <v>43.67206672913334</v>
+        <v>110.066749742611</v>
       </c>
       <c r="I42" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="J42" t="n">
-        <v>118.9292291292632</v>
+        <v>123.2812656957629</v>
       </c>
       <c r="K42" t="n">
-        <v>226.9929716416696</v>
+        <v>123.2812656957629</v>
       </c>
       <c r="L42" t="n">
-        <v>631.6088897373414</v>
+        <v>527.8971837914347</v>
       </c>
       <c r="M42" t="n">
-        <v>694.7077901828724</v>
+        <v>1052.044097349466</v>
       </c>
       <c r="N42" t="n">
-        <v>1235.149615955897</v>
+        <v>1605.770633449017</v>
       </c>
       <c r="O42" t="n">
-        <v>1675.285538976241</v>
+        <v>2045.906556469361</v>
       </c>
       <c r="P42" t="n">
-        <v>2011.53035259107</v>
+        <v>2382.15137008419</v>
       </c>
       <c r="Q42" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="R42" t="n">
-        <v>2133.389965868492</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="S42" t="n">
-        <v>1975.216993512408</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="T42" t="n">
-        <v>1776.338445635187</v>
+        <v>2202.326616904432</v>
       </c>
       <c r="U42" t="n">
-        <v>1548.168821606027</v>
+        <v>1974.156992875271</v>
       </c>
       <c r="V42" t="n">
-        <v>1480.590787402504</v>
+        <v>1739.004884643529</v>
       </c>
       <c r="W42" t="n">
-        <v>1226.353430674303</v>
+        <v>1484.767527915327</v>
       </c>
       <c r="X42" t="n">
-        <v>1018.50193046877</v>
+        <v>1276.916027709794</v>
       </c>
       <c r="Y42" t="n">
-        <v>810.7416317038161</v>
+        <v>1069.155728944841</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>212.6082496570403</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="C43" t="n">
-        <v>43.67206672913334</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="D43" t="n">
-        <v>43.67206672913334</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="E43" t="n">
-        <v>43.67206672913334</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="F43" t="n">
-        <v>43.67206672913334</v>
+        <v>374.7722761247705</v>
       </c>
       <c r="G43" t="n">
-        <v>43.67206672913334</v>
+        <v>205.7724758631029</v>
       </c>
       <c r="H43" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="I43" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="J43" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="K43" t="n">
-        <v>99.97425979540148</v>
+        <v>104.3262963619012</v>
       </c>
       <c r="L43" t="n">
-        <v>227.5481173565599</v>
+        <v>231.9001539230596</v>
       </c>
       <c r="M43" t="n">
-        <v>372.4459860745899</v>
+        <v>376.7980226410895</v>
       </c>
       <c r="N43" t="n">
-        <v>519.3331237590189</v>
+        <v>523.6851603255186</v>
       </c>
       <c r="O43" t="n">
-        <v>638.9908742682591</v>
+        <v>643.3429108347588</v>
       </c>
       <c r="P43" t="n">
-        <v>717.8580691152032</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="Q43" t="n">
-        <v>688.4411499688251</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="R43" t="n">
-        <v>688.4411499688251</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="S43" t="n">
-        <v>474.1527267869878</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="T43" t="n">
-        <v>474.1527267869878</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="U43" t="n">
-        <v>212.6082496570403</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="V43" t="n">
-        <v>212.6082496570403</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="W43" t="n">
-        <v>212.6082496570403</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="X43" t="n">
-        <v>212.6082496570403</v>
+        <v>507.9216824998656</v>
       </c>
       <c r="Y43" t="n">
-        <v>212.6082496570403</v>
+        <v>507.9216824998656</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1190.473055760523</v>
+        <v>1251.00023448064</v>
       </c>
       <c r="C44" t="n">
-        <v>1190.473055760523</v>
+        <v>1251.00023448064</v>
       </c>
       <c r="D44" t="n">
-        <v>1190.473055760523</v>
+        <v>1251.00023448064</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.473055760523</v>
+        <v>865.2119818823953</v>
       </c>
       <c r="F44" t="n">
-        <v>788.8305947949436</v>
+        <v>454.2260770927878</v>
       </c>
       <c r="G44" t="n">
-        <v>370.8667866931305</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="H44" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="I44" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="J44" t="n">
-        <v>101.1834816496626</v>
+        <v>163.7919595285828</v>
       </c>
       <c r="K44" t="n">
-        <v>395.4342926696611</v>
+        <v>320.4752540637133</v>
       </c>
       <c r="L44" t="n">
-        <v>812.755070718756</v>
+        <v>737.7960321128081</v>
       </c>
       <c r="M44" t="n">
-        <v>848.6929927188874</v>
+        <v>1218.752352270844</v>
       </c>
       <c r="N44" t="n">
-        <v>1322.799691415619</v>
+        <v>1692.859050967575</v>
       </c>
       <c r="O44" t="n">
-        <v>1725.297565081134</v>
+        <v>2095.35692463309</v>
       </c>
       <c r="P44" t="n">
-        <v>2031.145805229697</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="Q44" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="R44" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="S44" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="T44" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="U44" t="n">
-        <v>1929.841551094759</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="V44" t="n">
-        <v>1929.841551094759</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="W44" t="n">
-        <v>1577.072895824645</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="X44" t="n">
-        <v>1577.072895824645</v>
+        <v>2027.739406520573</v>
       </c>
       <c r="Y44" t="n">
-        <v>1577.072895824645</v>
+        <v>1637.600074544761</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>831.6925021527371</v>
+        <v>692.5540489805135</v>
       </c>
       <c r="C45" t="n">
-        <v>657.2394728716101</v>
+        <v>692.5540489805135</v>
       </c>
       <c r="D45" t="n">
-        <v>508.3050632103588</v>
+        <v>659.1916577499735</v>
       </c>
       <c r="E45" t="n">
-        <v>349.0676082049033</v>
+        <v>499.9542027445181</v>
       </c>
       <c r="F45" t="n">
-        <v>349.0676082049033</v>
+        <v>353.4196447714031</v>
       </c>
       <c r="G45" t="n">
-        <v>211.1574951511694</v>
+        <v>215.5095317176692</v>
       </c>
       <c r="H45" t="n">
-        <v>105.7147131761113</v>
+        <v>110.066749742611</v>
       </c>
       <c r="I45" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="J45" t="n">
-        <v>118.9292291292632</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="K45" t="n">
-        <v>374.1765495703617</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="L45" t="n">
-        <v>411.6605258156089</v>
+        <v>374.8779946233014</v>
       </c>
       <c r="M45" t="n">
-        <v>694.7077901828724</v>
+        <v>899.0249081813323</v>
       </c>
       <c r="N45" t="n">
-        <v>1235.149615955897</v>
+        <v>1452.751444280884</v>
       </c>
       <c r="O45" t="n">
-        <v>1675.285538976241</v>
+        <v>1892.887367301227</v>
       </c>
       <c r="P45" t="n">
-        <v>2011.53035259107</v>
+        <v>2229.132180916056</v>
       </c>
       <c r="Q45" t="n">
-        <v>2183.603336456667</v>
+        <v>2401.205164781653</v>
       </c>
       <c r="R45" t="n">
-        <v>2133.389965868492</v>
+        <v>2350.991794193478</v>
       </c>
       <c r="S45" t="n">
-        <v>1975.216993512408</v>
+        <v>2192.818821837394</v>
       </c>
       <c r="T45" t="n">
-        <v>1925.227226926864</v>
+        <v>1993.940273960173</v>
       </c>
       <c r="U45" t="n">
-        <v>1697.057602897703</v>
+        <v>1765.770649931012</v>
       </c>
       <c r="V45" t="n">
-        <v>1461.905494665961</v>
+        <v>1530.61854169927</v>
       </c>
       <c r="W45" t="n">
-        <v>1207.668137937759</v>
+        <v>1276.381184971068</v>
       </c>
       <c r="X45" t="n">
-        <v>1207.668137937759</v>
+        <v>1068.529684765535</v>
       </c>
       <c r="Y45" t="n">
-        <v>999.9078391728051</v>
+        <v>860.7693860005816</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.67206672913334</v>
+        <v>522.6853697071637</v>
       </c>
       <c r="C46" t="n">
-        <v>43.67206672913334</v>
+        <v>522.6853697071637</v>
       </c>
       <c r="D46" t="n">
-        <v>43.67206672913334</v>
+        <v>522.6853697071637</v>
       </c>
       <c r="E46" t="n">
-        <v>43.67206672913334</v>
+        <v>374.7722761247705</v>
       </c>
       <c r="F46" t="n">
-        <v>43.67206672913334</v>
+        <v>374.7722761247705</v>
       </c>
       <c r="G46" t="n">
-        <v>43.67206672913334</v>
+        <v>205.7724758631029</v>
       </c>
       <c r="H46" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="I46" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="J46" t="n">
-        <v>43.67206672913334</v>
+        <v>48.02410329563306</v>
       </c>
       <c r="K46" t="n">
-        <v>99.97425979540148</v>
+        <v>104.3262963619012</v>
       </c>
       <c r="L46" t="n">
-        <v>227.5481173565599</v>
+        <v>231.9001539230596</v>
       </c>
       <c r="M46" t="n">
-        <v>372.4459860745899</v>
+        <v>376.7980226410895</v>
       </c>
       <c r="N46" t="n">
-        <v>519.3331237590189</v>
+        <v>523.6851603255186</v>
       </c>
       <c r="O46" t="n">
-        <v>638.9908742682591</v>
+        <v>643.3429108347588</v>
       </c>
       <c r="P46" t="n">
-        <v>717.8580691152032</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="Q46" t="n">
-        <v>717.8580691152032</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="R46" t="n">
-        <v>717.8580691152032</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="S46" t="n">
-        <v>717.8580691152032</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="T46" t="n">
-        <v>490.5498817838049</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="U46" t="n">
-        <v>264.4646458726634</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="V46" t="n">
-        <v>264.4646458726634</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="W46" t="n">
-        <v>264.4646458726634</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="X46" t="n">
-        <v>264.4646458726634</v>
+        <v>722.2101056817029</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.67206672913334</v>
+        <v>522.6853697071637</v>
       </c>
     </row>
   </sheetData>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>346.6497152550358</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>264.7035098197573</v>
       </c>
       <c r="N12" t="n">
-        <v>393.2705300454842</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8941,13 +8941,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>335.3768801568956</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>12.86109185980285</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.31748437003574</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>25.35922535151134</v>
+        <v>278.3408204133108</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.26619292211498</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10825,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>148.1280474409743</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>378.502034197418</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>115.794956276526</v>
+        <v>6.639660809448827</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>465.92347502383</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>55.51245019227988</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110.2517249575076</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>185.1883252127122</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448827</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>292.2928435175971</v>
       </c>
       <c r="M45" t="n">
-        <v>222.1700645674065</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>465.92347502383</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.806155497832</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>26.99200187787129</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.4419362657602</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>107.4707906117783</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.33838690132004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.424651744287</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>157.1920051741669</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>138.4194590392561</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>53.31981779472805</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>38.73982821409211</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.8292424708639</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>118.5742443897009</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2881387593542</v>
       </c>
       <c r="V13" t="n">
-        <v>17.8816912783677</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>249.5651268889607</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.5449140062435</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>161.8021914044194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>70.56170097936634</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>180.250161098925</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>217.5691233149489</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.244650486378</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>308.9482177841047</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>79.63808778105255</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>66.13883027455778</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.1358088219282</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>164.8213167539759</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>47.06618669779689</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>167.424651744287</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>157.1920051741669</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>138.4194590392561</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>53.31981779472805</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>38.73982821409211</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>151.8292424708639</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>214.147052251815</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.5258259859112</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2881387593542</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>200.3735077361105</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>114.4936156444074</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>33.79195628540538</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,13 +23907,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>282.5902139777103</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>115.3834518935216</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.81938065884071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>98.32758997849527</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>171.2340993700032</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>204.3633770359734</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>45.12235034902557</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>55.14106060940512</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>160.1931355603109</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>71.56218365249418</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>132.2758992500985</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>27.38738814000507</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.2116351988045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>185.7515330091956</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>152.7894259317692</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>65.0171670442641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>191.9302938044073</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>129.2097213330904</v>
       </c>
       <c r="D32" t="n">
-        <v>286.5131784221086</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>19.90190336753813</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>254.7944307753862</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>290.3458320819105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.21032716693534</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>42.05485008526546</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>244.910024451405</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>6.771212764859513</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>247.5838007587593</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>218.0902045843394</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>113.3770584325128</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>80.82231771990351</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>165.8983332879384</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>13.60313571158716</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>27.35284188332963</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.250009385788076</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>11.64421596161185</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25921,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,16 +25946,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>114.4162982464042</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>147.39989347876</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>62.45749068994763</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>21.05516473730097</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>605208.6810362202</v>
+        <v>641948.1294802208</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605208.6810362202</v>
+        <v>641948.1294802208</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684600.1344551368</v>
+        <v>684600.1344551367</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684600.1344551368</v>
+        <v>684600.1344551366</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684600.1344551368</v>
+        <v>684600.1344551367</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>684600.1344551367</v>
+        <v>684600.1344551366</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684600.1344551368</v>
+        <v>684600.1344551366</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605208.6810362202</v>
+        <v>638848.7710649723</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>605208.6810362203</v>
+        <v>638848.7710649724</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
-        <v>388139.7636902169</v>
+        <v>402518.0483932052</v>
       </c>
       <c r="F2" t="n">
-        <v>388139.7636902171</v>
+        <v>402518.0483932053</v>
       </c>
       <c r="G2" t="n">
-        <v>433728.9150236364</v>
+        <v>433728.9150236361</v>
       </c>
       <c r="H2" t="n">
+        <v>433728.9150236362</v>
+      </c>
+      <c r="I2" t="n">
         <v>433728.9150236365</v>
       </c>
-      <c r="I2" t="n">
-        <v>433728.9150236364</v>
-      </c>
       <c r="J2" t="n">
-        <v>433728.9150236364</v>
+        <v>433728.9150236362</v>
       </c>
       <c r="K2" t="n">
         <v>433728.9150236362</v>
       </c>
       <c r="L2" t="n">
-        <v>433728.9150236363</v>
+        <v>433728.9150236364</v>
       </c>
       <c r="M2" t="n">
-        <v>433728.9150236363</v>
+        <v>433728.9150236362</v>
       </c>
       <c r="N2" t="n">
-        <v>433728.9150236364</v>
+        <v>433728.9150236361</v>
       </c>
       <c r="O2" t="n">
-        <v>388139.7636902169</v>
+        <v>407456.9960766594</v>
       </c>
       <c r="P2" t="n">
-        <v>388139.763690217</v>
+        <v>407456.9960766592</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466474.3723111398</v>
+        <v>431549.0094381387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35188.79703475098</v>
+        <v>69796.01944102407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136040.6714645868</v>
+        <v>149597.4829710618</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>88109.07502345181</v>
+        <v>105713.4357537098</v>
       </c>
       <c r="F4" t="n">
-        <v>88109.07502345181</v>
+        <v>105713.4357537098</v>
       </c>
       <c r="G4" t="n">
         <v>106808.022922681</v>
@@ -26447,7 +26447,7 @@
         <v>106808.022922681</v>
       </c>
       <c r="L4" t="n">
-        <v>106808.022922681</v>
+        <v>106808.0229226811</v>
       </c>
       <c r="M4" t="n">
         <v>106808.022922681</v>
@@ -26456,10 +26456,10 @@
         <v>106808.022922681</v>
       </c>
       <c r="O4" t="n">
-        <v>88109.07502345181</v>
+        <v>96032.27410451484</v>
       </c>
       <c r="P4" t="n">
-        <v>88109.07502345182</v>
+        <v>96032.27410451486</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41425.58259407382</v>
+        <v>43344.70451673232</v>
       </c>
       <c r="F5" t="n">
-        <v>41425.58259407382</v>
+        <v>43344.70451673232</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26496,7 +26496,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>41425.58259407382</v>
+        <v>44733.13038461361</v>
       </c>
       <c r="P5" t="n">
-        <v>41425.58259407382</v>
+        <v>44733.13038461361</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171432.6257013922</v>
+        <v>171388.4899227113</v>
       </c>
       <c r="C6" t="n">
-        <v>171432.625701392</v>
+        <v>171388.4899227112</v>
       </c>
       <c r="D6" t="n">
-        <v>171432.6257013922</v>
+        <v>171388.4899227112</v>
       </c>
       <c r="E6" t="n">
-        <v>-207869.2662384485</v>
+        <v>-185197.8772822092</v>
       </c>
       <c r="F6" t="n">
-        <v>258605.1060726915</v>
+        <v>246351.1321559296</v>
       </c>
       <c r="G6" t="n">
-        <v>242500.6170027949</v>
+        <v>201824.9808507024</v>
       </c>
       <c r="H6" t="n">
-        <v>277689.414037546</v>
+        <v>271621.0002917266</v>
       </c>
       <c r="I6" t="n">
-        <v>277689.4140375459</v>
+        <v>271621.0002917268</v>
       </c>
       <c r="J6" t="n">
-        <v>277689.4140375459</v>
+        <v>271621.0002917266</v>
       </c>
       <c r="K6" t="n">
-        <v>277689.4140375457</v>
+        <v>271621.0002917266</v>
       </c>
       <c r="L6" t="n">
-        <v>277689.4140375458</v>
+        <v>271621.0002917267</v>
       </c>
       <c r="M6" t="n">
-        <v>141648.742572959</v>
+        <v>122023.5173206647</v>
       </c>
       <c r="N6" t="n">
-        <v>277689.4140375459</v>
+        <v>271621.0002917265</v>
       </c>
       <c r="O6" t="n">
-        <v>258605.1060726913</v>
+        <v>259747.4472101458</v>
       </c>
       <c r="P6" t="n">
-        <v>258605.1060726914</v>
+        <v>259747.4472101456</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>314.0544042225317</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>314.0544042225317</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141667</v>
+        <v>600.3012911954133</v>
       </c>
       <c r="F4" t="n">
-        <v>545.9008341141667</v>
+        <v>600.3012911954133</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26816,22 +26816,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>545.9008341141667</v>
+        <v>600.3012911954132</v>
       </c>
       <c r="P4" t="n">
-        <v>545.9008341141667</v>
+        <v>600.3012911954132</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>314.0544042225317</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>63.68925999455496</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141667</v>
+        <v>600.3012911954133</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.3864386403889</v>
+        <v>73.98598155914226</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.9008341141667</v>
+        <v>600.3012911954133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.9008341141667</v>
+        <v>600.3012911954133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>128.3864386403889</v>
+        <v>73.98598155914226</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.262530268231282</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>12.92988810952362</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>48.67369816598655</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>107.1556783532949</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>160.5985846075251</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>199.2367453039082</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>221.6892679615663</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>225.2764320861784</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>212.7221467314536</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>181.5534307344938</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>136.339065503461</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>79.30741696178335</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>28.76990848732037</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>5.52672624918244</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1010024214585026</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.6755132468182757</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>6.524035831113348</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>23.2578025768573</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>63.82118793733543</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>109.0805754741599</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>146.6722951041173</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>171.1596503012797</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>175.6897369433199</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>160.7217855269781</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>128.9934023683074</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>86.22867340087323</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>41.94107685069962</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>12.54736228190963</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>2.722792429061382</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.04444166097488658</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.5663276141717783</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>5.035167333272724</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>17.03101588800221</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>40.03936232194473</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>65.79697190104842</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>84.19747092877513</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>88.7744277378543</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>86.66357026685047</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>80.04783404675285</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>68.49475071764851</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>47.42221503760228</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>25.46414890630559</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>9.869545785157261</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.419763442370325</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03089059713664249</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.262530268231282</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>12.92988810952362</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>48.67369816598655</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>107.1556783532949</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>160.5985846075251</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>199.2367453039082</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>221.6892679615663</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>225.2764320861784</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>212.7221467314536</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>181.5534307344938</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>136.339065503461</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>79.30741696178335</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>28.76990848732037</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>5.52672624918244</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1010024214585026</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.6755132468182757</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>6.524035831113348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>23.2578025768573</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>63.82118793733543</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>109.0805754741599</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>146.6722951041173</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>171.1596503012797</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>175.6897369433199</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>160.7217855269781</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>128.9934023683074</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>86.22867340087323</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>41.94107685069962</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>12.54736228190963</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>2.722792429061382</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.04444166097488658</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.5663276141717783</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>5.035167333272724</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>17.03101588800221</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>40.03936232194473</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>65.79697190104842</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>84.19747092877513</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>88.7744277378543</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>86.66357026685047</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>80.04783404675285</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>68.49475071764851</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>47.42221503760228</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>25.46414890630559</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>9.869545785157261</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.419763442370325</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03089059713664249</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>95.20638899868236</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>264.6541461337093</v>
       </c>
       <c r="L11" t="n">
-        <v>3.874924893079765</v>
+        <v>381.1315448843715</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>440.856568227126</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1984460922753</v>
+        <v>433.2102929015717</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>363.4241165725123</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>272.1191431507069</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>126.3483662889162</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>63.07459661107757</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>235.7043735123795</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>378.9582606277023</v>
       </c>
       <c r="M12" t="n">
-        <v>63.73626307629391</v>
+        <v>293.7291261990187</v>
       </c>
       <c r="N12" t="n">
-        <v>473.2478891358209</v>
+        <v>523.6903992035401</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>411.9878603592632</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>313.4817635939144</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>156.3241870507008</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>43.52748007516557</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>111.7874961890913</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>128.3583046996949</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>130.7957426460791</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>104.6329619607925</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>65.773309982542</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>95.20638899868236</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>264.6541461337093</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>381.1315448843715</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>440.856568227126</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>433.2102929015717</v>
       </c>
       <c r="O14" t="n">
-        <v>361.1402076471955</v>
+        <v>363.4241165725123</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>272.119143150707</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>126.3483662889162</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>63.07459661107757</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>235.7043735123795</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>378.9582606277023</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>494.7306801292613</v>
       </c>
       <c r="N15" t="n">
-        <v>105.3365844418481</v>
+        <v>322.6888452732974</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>411.9878603592632</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>313.4817635939144</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>156.3241870507008</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>43.52748007516557</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>111.7874961890913</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>128.3583046996949</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>130.7957426460791</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>104.6329619607925</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>65.773309982542</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,16 +37630,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>121.2056763041514</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>414.802965510682</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>41.54873083723953</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>109.1552954670772</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>63.73626307629391</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>545.9008341141667</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>19.24625727016487</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>58.09233830356486</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>158.2659540758894</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>36.30093131326404</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>37.86260226792655</v>
+        <v>330.1554457855236</v>
       </c>
       <c r="M45" t="n">
-        <v>285.9063276437004</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>545.9008341141667</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1583756.066075279</v>
+        <v>1616892.403560072</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1430658.969273092</v>
+        <v>1854862.008498287</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7678555.799103436</v>
+        <v>7903192.579699643</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8362695.773142077</v>
+        <v>8258999.822647738</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0402072469038</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>326.5449140062435</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>161.8021914044194</v>
+        <v>34.99653633958388</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>43.56969910149505</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>180.250161098925</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5691233149489</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.244650486378</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6680039163924</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>105.7114084053831</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>66.13883027455778</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.21675730194351</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>159.1358088219282</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8969404199999</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>58.01415066702021</v>
       </c>
       <c r="W12" t="n">
-        <v>144.2241925491413</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.147052251815</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>106.9515815962103</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>120.2570633735996</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>264.4955775024747</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0402072469038</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.2897208719489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>145.874003524034</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>65.43112461233133</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6680039163924</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>105.7114084053831</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.21675730194351</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>197.4419362657602</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8969404199999</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>98.35486132513435</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>111.0727338983303</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>213.4106622846845</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3.932784358880737</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>140.2329405200862</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>101.0648684641362</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>50.28788303971709</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>12.08494332168437</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>36.77550900004736</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>90.27998741352613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>60.79152971843328</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>90.7944658248523</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>19.65541699476269</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2614,13 +2614,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2639,13 +2639,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G27" t="n">
         <v>136.5310119231965</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>196.1788370630662</v>
+        <v>356.681260877744</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>112.701647550017</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>33.77936158462983</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>236.0631704379172</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>20.40829093103363</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3158,13 +3158,13 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.05110737787441</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>127.9394108880944</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>121.97615000883</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,19 +3353,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>156.7732490070254</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>323.2180416857421</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>60.80928815618483</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3717,16 +3717,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>230.2634979541062</v>
       </c>
       <c r="V40" t="n">
-        <v>4.553842565068744</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>21.56972499482789</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>61.03865437645878</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>91.88618126841223</v>
+        <v>73.07756919993525</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3878,7 +3878,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>131.8179123113441</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>52.71481492008208</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>296.9557413158466</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>402.1399540591831</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>33.02876731823457</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>15.46382396493349</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>87.1257470790881</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.5294886147938</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1370.512344102985</v>
+        <v>1578.93140104025</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.512344102985</v>
+        <v>1209.968884099838</v>
       </c>
       <c r="D11" t="n">
-        <v>1370.512344102985</v>
+        <v>1209.968884099838</v>
       </c>
       <c r="E11" t="n">
-        <v>1370.512344102985</v>
+        <v>824.180631501594</v>
       </c>
       <c r="F11" t="n">
-        <v>959.5264393133772</v>
+        <v>824.180631501594</v>
       </c>
       <c r="G11" t="n">
-        <v>541.3040077508481</v>
+        <v>406.2168233997809</v>
       </c>
       <c r="H11" t="n">
-        <v>211.4606602697941</v>
+        <v>79.02210343578372</v>
       </c>
       <c r="I11" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="J11" t="n">
-        <v>142.2784284043287</v>
+        <v>159.4399229620831</v>
       </c>
       <c r="K11" t="n">
-        <v>404.2860330767008</v>
+        <v>453.6907339820816</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6062625122283</v>
+        <v>871.0115120311765</v>
       </c>
       <c r="M11" t="n">
-        <v>1218.054265057083</v>
+        <v>1351.967832189212</v>
       </c>
       <c r="N11" t="n">
-        <v>1646.932455029639</v>
+        <v>1393.101075718079</v>
       </c>
       <c r="O11" t="n">
-        <v>2006.722330436427</v>
+        <v>1795.598949383594</v>
       </c>
       <c r="P11" t="n">
-        <v>2276.120282155626</v>
+        <v>2101.447189532157</v>
       </c>
       <c r="Q11" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="R11" t="n">
-        <v>2357.195367709436</v>
+        <v>2128.57464698716</v>
       </c>
       <c r="S11" t="n">
-        <v>2175.124497912542</v>
+        <v>1952.39715930133</v>
       </c>
       <c r="T11" t="n">
-        <v>1955.357706685321</v>
+        <v>1952.39715930133</v>
       </c>
       <c r="U11" t="n">
-        <v>1701.575231446555</v>
+        <v>1952.39715930133</v>
       </c>
       <c r="V11" t="n">
-        <v>1370.512344102985</v>
+        <v>1952.39715930133</v>
       </c>
       <c r="W11" t="n">
-        <v>1370.512344102985</v>
+        <v>1952.39715930133</v>
       </c>
       <c r="X11" t="n">
-        <v>1370.512344102985</v>
+        <v>1578.93140104025</v>
       </c>
       <c r="Y11" t="n">
-        <v>1370.512344102985</v>
+        <v>1578.93140104025</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8181436977267</v>
+        <v>651.5041766983605</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3651144165997</v>
+        <v>477.0511474172336</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4307047553484</v>
+        <v>328.1167377559823</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1932497498929</v>
+        <v>328.1167377559823</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6586917767778</v>
+        <v>181.5821797828672</v>
       </c>
       <c r="G12" t="n">
-        <v>221.610202972341</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="H12" t="n">
-        <v>114.8310025628631</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="I12" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="J12" t="n">
-        <v>110.4679539405999</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8152837178556</v>
+        <v>298.9193871702319</v>
       </c>
       <c r="L12" t="n">
-        <v>718.9839617392809</v>
+        <v>703.5353052659037</v>
       </c>
       <c r="M12" t="n">
-        <v>1009.775796676309</v>
+        <v>1155.972030456463</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.229291887814</v>
+        <v>1235.149615955897</v>
       </c>
       <c r="O12" t="n">
-        <v>1936.097273643485</v>
+        <v>1675.285538976241</v>
       </c>
       <c r="P12" t="n">
-        <v>2246.44421960146</v>
+        <v>2011.53035259107</v>
       </c>
       <c r="Q12" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="R12" t="n">
-        <v>2342.400359426155</v>
+        <v>2133.389965868491</v>
       </c>
       <c r="S12" t="n">
-        <v>2181.657118191884</v>
+        <v>1975.216993512407</v>
       </c>
       <c r="T12" t="n">
-        <v>2181.657118191884</v>
+        <v>1776.338445635186</v>
       </c>
       <c r="U12" t="n">
-        <v>1953.478390494914</v>
+        <v>1548.168821606026</v>
       </c>
       <c r="V12" t="n">
-        <v>1718.326282263172</v>
+        <v>1489.568669417117</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.645279688281</v>
+        <v>1235.331312688915</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.793779482749</v>
+        <v>1027.479812483382</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.033480717795</v>
+        <v>819.7195137184285</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.02410329563307</v>
+        <v>341.7017997238622</v>
       </c>
       <c r="C13" t="n">
-        <v>48.02410329563307</v>
+        <v>341.7017997238622</v>
       </c>
       <c r="D13" t="n">
-        <v>48.02410329563307</v>
+        <v>191.5851603115265</v>
       </c>
       <c r="E13" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="F13" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="G13" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="H13" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="I13" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="J13" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="K13" t="n">
-        <v>91.11630857004698</v>
+        <v>99.97425979540148</v>
       </c>
       <c r="L13" t="n">
-        <v>201.7859297972473</v>
+        <v>227.5481173565599</v>
       </c>
       <c r="M13" t="n">
-        <v>328.8606514499452</v>
+        <v>372.4459860745899</v>
       </c>
       <c r="N13" t="n">
-        <v>458.3484366695635</v>
+        <v>519.3331237590189</v>
       </c>
       <c r="O13" t="n">
-        <v>561.9350690107481</v>
+        <v>638.9908742682591</v>
       </c>
       <c r="P13" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="Q13" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="R13" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="S13" t="n">
-        <v>410.7404921037526</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="T13" t="n">
-        <v>302.7085915015199</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="U13" t="n">
-        <v>302.7085915015199</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="V13" t="n">
-        <v>48.02410329563307</v>
+        <v>463.1735809093163</v>
       </c>
       <c r="W13" t="n">
-        <v>48.02410329563307</v>
+        <v>341.7017997238622</v>
       </c>
       <c r="X13" t="n">
-        <v>48.02410329563307</v>
+        <v>341.7017997238622</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.02410329563307</v>
+        <v>341.7017997238622</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1210.300486063157</v>
+        <v>1268.057353436601</v>
       </c>
       <c r="C14" t="n">
-        <v>1210.300486063157</v>
+        <v>1268.057353436601</v>
       </c>
       <c r="D14" t="n">
-        <v>852.0347874564063</v>
+        <v>1000.890103434101</v>
       </c>
       <c r="E14" t="n">
-        <v>466.2465348581621</v>
+        <v>615.1018508358568</v>
       </c>
       <c r="F14" t="n">
-        <v>466.2465348581621</v>
+        <v>615.1018508358568</v>
       </c>
       <c r="G14" t="n">
-        <v>48.02410329563307</v>
+        <v>197.1380427340437</v>
       </c>
       <c r="H14" t="n">
-        <v>48.02410329563307</v>
+        <v>197.1380427340437</v>
       </c>
       <c r="I14" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="J14" t="n">
-        <v>142.2784284043286</v>
+        <v>159.4399229620831</v>
       </c>
       <c r="K14" t="n">
-        <v>404.2860330767008</v>
+        <v>453.6907339820816</v>
       </c>
       <c r="L14" t="n">
-        <v>781.6062625122286</v>
+        <v>871.0115120311765</v>
       </c>
       <c r="M14" t="n">
-        <v>1218.054265057083</v>
+        <v>1351.967832189212</v>
       </c>
       <c r="N14" t="n">
-        <v>1646.932455029639</v>
+        <v>1393.101075718079</v>
       </c>
       <c r="O14" t="n">
-        <v>2006.722330436426</v>
+        <v>1795.598949383594</v>
       </c>
       <c r="P14" t="n">
-        <v>2276.120282155626</v>
+        <v>2031.145805229696</v>
       </c>
       <c r="Q14" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="R14" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="S14" t="n">
-        <v>2401.205164781653</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="T14" t="n">
-        <v>2401.205164781653</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="U14" t="n">
-        <v>2401.205164781653</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="V14" t="n">
-        <v>2401.205164781653</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="W14" t="n">
-        <v>2048.436509511539</v>
+        <v>1654.657193500723</v>
       </c>
       <c r="X14" t="n">
-        <v>1674.970751250459</v>
+        <v>1654.657193500723</v>
       </c>
       <c r="Y14" t="n">
-        <v>1596.900326127279</v>
+        <v>1654.657193500723</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>841.5687315203425</v>
+        <v>978.2270601258521</v>
       </c>
       <c r="C15" t="n">
-        <v>667.1157022392155</v>
+        <v>803.7740308447251</v>
       </c>
       <c r="D15" t="n">
-        <v>518.1812925779642</v>
+        <v>654.8396211834738</v>
       </c>
       <c r="E15" t="n">
-        <v>358.9438375725087</v>
+        <v>495.6021661780184</v>
       </c>
       <c r="F15" t="n">
-        <v>292.8517925095477</v>
+        <v>349.0676082049033</v>
       </c>
       <c r="G15" t="n">
-        <v>154.803303705111</v>
+        <v>211.1574951511694</v>
       </c>
       <c r="H15" t="n">
-        <v>48.02410329563307</v>
+        <v>105.7147131761113</v>
       </c>
       <c r="I15" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="J15" t="n">
-        <v>110.4679539405999</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8152837178556</v>
+        <v>298.9193871702319</v>
       </c>
       <c r="L15" t="n">
-        <v>718.9839617392809</v>
+        <v>703.5353052659037</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.76733506725</v>
+        <v>1155.972030456463</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.229291887814</v>
+        <v>1235.149615955897</v>
       </c>
       <c r="O15" t="n">
-        <v>1936.097273643485</v>
+        <v>1675.285538976241</v>
       </c>
       <c r="P15" t="n">
-        <v>2246.44421960146</v>
+        <v>2011.53035259107</v>
       </c>
       <c r="Q15" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="R15" t="n">
-        <v>2342.400359426155</v>
+        <v>2133.389965868491</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.400359426155</v>
+        <v>1975.216993512407</v>
       </c>
       <c r="T15" t="n">
-        <v>2142.964060167811</v>
+        <v>1776.338445635186</v>
       </c>
       <c r="U15" t="n">
-        <v>1914.785332470841</v>
+        <v>1776.338445635186</v>
       </c>
       <c r="V15" t="n">
-        <v>1679.633224239099</v>
+        <v>1541.186337403444</v>
       </c>
       <c r="W15" t="n">
-        <v>1425.395867510897</v>
+        <v>1541.186337403444</v>
       </c>
       <c r="X15" t="n">
-        <v>1217.544367305364</v>
+        <v>1333.334837197911</v>
       </c>
       <c r="Y15" t="n">
-        <v>1009.784068540411</v>
+        <v>1125.574538432957</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>445.4021810632249</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="C16" t="n">
-        <v>445.4021810632249</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="D16" t="n">
-        <v>295.2855416508892</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="E16" t="n">
-        <v>147.3724480684961</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="F16" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="G16" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="H16" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="I16" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="J16" t="n">
-        <v>48.02410329563307</v>
+        <v>43.67206672913333</v>
       </c>
       <c r="K16" t="n">
-        <v>91.11630857004698</v>
+        <v>99.97425979540148</v>
       </c>
       <c r="L16" t="n">
-        <v>201.7859297972473</v>
+        <v>227.5481173565599</v>
       </c>
       <c r="M16" t="n">
-        <v>328.8606514499452</v>
+        <v>372.4459860745899</v>
       </c>
       <c r="N16" t="n">
-        <v>458.3484366695635</v>
+        <v>519.3331237590189</v>
       </c>
       <c r="O16" t="n">
-        <v>561.9350690107481</v>
+        <v>638.9908742682591</v>
       </c>
       <c r="P16" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="Q16" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="R16" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="S16" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="T16" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="U16" t="n">
-        <v>627.0506458934647</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="V16" t="n">
-        <v>627.0506458934647</v>
+        <v>463.1735809093163</v>
       </c>
       <c r="W16" t="n">
-        <v>627.0506458934647</v>
+        <v>173.7564108723557</v>
       </c>
       <c r="X16" t="n">
-        <v>627.0506458934647</v>
+        <v>173.7564108723557</v>
       </c>
       <c r="Y16" t="n">
-        <v>627.0506458934647</v>
+        <v>173.7564108723557</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C17" t="n">
-        <v>1546.944160717209</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="D17" t="n">
-        <v>1546.944160717209</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E17" t="n">
-        <v>1161.155908118965</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F17" t="n">
-        <v>750.1700033293573</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,16 +5518,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="18">
@@ -5576,16 +5576,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406182</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V19" t="n">
-        <v>579.9823256406182</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W19" t="n">
-        <v>576.0098161872033</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1268.68094731003</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.68094731003</v>
+        <v>606.5783214787459</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2418.885877611043</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2418.885877611043</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2418.885877611043</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W20" t="n">
-        <v>2418.885877611043</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X20" t="n">
-        <v>2045.420119349963</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y20" t="n">
-        <v>1655.280787374151</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5855,19 +5855,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>252.6519168570173</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C22" t="n">
-        <v>252.6519168570173</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W22" t="n">
-        <v>473.4444960005474</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X22" t="n">
-        <v>473.4444960005474</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y22" t="n">
-        <v>252.6519168570173</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>739.4034003911122</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C23" t="n">
-        <v>739.4034003911122</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D23" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E23" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
         <v>381.1377017843616</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6019,22 +6019,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2453.735900406639</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2199.97411504473</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V23" t="n">
-        <v>1868.91122770116</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W23" t="n">
-        <v>1516.142572431046</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X23" t="n">
-        <v>1516.142572431046</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="Y23" t="n">
-        <v>1126.003240455234</v>
+        <v>1526.329725433337</v>
       </c>
     </row>
     <row r="24">
@@ -6050,10 +6050,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
@@ -6062,31 +6062,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>293.0479818810668</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C25" t="n">
-        <v>293.0479818810668</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D25" t="n">
-        <v>293.0479818810668</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="E25" t="n">
-        <v>145.1348882986737</v>
+        <v>398.5674257938016</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>251.6774782958912</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>251.6774782958912</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>293.0479818810668</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C26" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D26" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>818.9554664465411</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>400.991658344728</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>73.79693838073081</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6229,16 +6229,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>1993.54646147304</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X26" t="n">
-        <v>1620.08070321196</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y26" t="n">
-        <v>1229.941371236149</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="27">
@@ -6287,10 +6287,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961344</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="G28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1717.512263598976</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C29" t="n">
-        <v>1348.549746658564</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D29" t="n">
-        <v>990.2840480518139</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6463,7 +6463,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1717.512263598976</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X29" t="n">
-        <v>1717.512263598976</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y29" t="n">
-        <v>1717.512263598976</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.942782082032</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C31" t="n">
-        <v>222.942782082032</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>614.2889361761142</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X31" t="n">
-        <v>404.5912469122717</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y31" t="n">
-        <v>404.5912469122717</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1781.603107998156</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C32" t="n">
-        <v>1543.155461091169</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.889762484419</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E32" t="n">
         <v>799.1015098861748</v>
@@ -6700,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2168.202948062278</v>
+        <v>2676.53465573435</v>
       </c>
       <c r="X32" t="n">
-        <v>2168.202948062278</v>
+        <v>2303.06889747327</v>
       </c>
       <c r="Y32" t="n">
-        <v>2168.202948062278</v>
+        <v>1912.929565497459</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170832</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359562</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747049</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
         <v>505.8730812692495</v>
@@ -6770,7 +6770,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6779,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,10 +6800,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.5382038240415</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V34" t="n">
-        <v>438.9553738610022</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W34" t="n">
-        <v>149.5382038240415</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X34" t="n">
-        <v>149.5382038240415</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.5382038240415</v>
+        <v>224.6669506791651</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>471.9067899221776</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C35" t="n">
-        <v>471.9067899221776</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>471.9067899221776</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2048.575150942546</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>1717.512263598976</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>1364.743608328861</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X35" t="n">
-        <v>991.2778500677816</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y35" t="n">
-        <v>601.1385180919699</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1567.641263708174</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C38" t="n">
-        <v>1241.158393318536</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117851</v>
+        <v>853.5471299640549</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>853.5471299640549</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>442.5612251744473</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>442.5612251744473</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>115.3665052104502</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073312</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224068</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X38" t="n">
-        <v>2344.380435748108</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y38" t="n">
-        <v>1954.241103772296</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="39">
@@ -7244,58 +7244,58 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931987</v>
+        <v>286.532373693199</v>
       </c>
       <c r="U40" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V40" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>793.1826313614433</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="C41" t="n">
-        <v>793.1826313614433</v>
+        <v>1638.463331830425</v>
       </c>
       <c r="D41" t="n">
-        <v>793.1826313614433</v>
+        <v>1280.197633223675</v>
       </c>
       <c r="E41" t="n">
-        <v>793.1826313614433</v>
+        <v>894.4093806254307</v>
       </c>
       <c r="F41" t="n">
-        <v>793.1826313614433</v>
+        <v>483.4234758358231</v>
       </c>
       <c r="G41" t="n">
-        <v>375.2188232596302</v>
+        <v>65.45966773401</v>
       </c>
       <c r="H41" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="I41" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="J41" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="K41" t="n">
-        <v>168.017722836743</v>
+        <v>337.9228777491319</v>
       </c>
       <c r="L41" t="n">
-        <v>585.3385008858378</v>
+        <v>755.2436557982269</v>
       </c>
       <c r="M41" t="n">
-        <v>1066.294821043873</v>
+        <v>1236.199975956263</v>
       </c>
       <c r="N41" t="n">
-        <v>1540.401519740605</v>
+        <v>1710.306674652994</v>
       </c>
       <c r="O41" t="n">
-        <v>1942.89939340612</v>
+        <v>2112.804548318509</v>
       </c>
       <c r="P41" t="n">
-        <v>2248.747633554683</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="Q41" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="R41" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="S41" t="n">
-        <v>2339.549958340785</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="T41" t="n">
-        <v>2120.915291312848</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.15350595094</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="V41" t="n">
-        <v>1536.090618607369</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="W41" t="n">
-        <v>1183.321963337255</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="X41" t="n">
-        <v>1183.321963337255</v>
+        <v>2007.425848770837</v>
       </c>
       <c r="Y41" t="n">
-        <v>793.1826313614433</v>
+        <v>2007.425848770837</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>900.9403919247725</v>
+        <v>710.1043288872702</v>
       </c>
       <c r="C42" t="n">
-        <v>808.1260674112248</v>
+        <v>636.2886024226891</v>
       </c>
       <c r="D42" t="n">
-        <v>659.1916577499735</v>
+        <v>487.3541927614378</v>
       </c>
       <c r="E42" t="n">
-        <v>499.9542027445181</v>
+        <v>328.1167377559823</v>
       </c>
       <c r="F42" t="n">
-        <v>353.4196447714031</v>
+        <v>181.5821797828672</v>
       </c>
       <c r="G42" t="n">
-        <v>215.5095317176692</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="H42" t="n">
-        <v>110.066749742611</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="I42" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="J42" t="n">
-        <v>123.2812656957629</v>
+        <v>118.9292291292632</v>
       </c>
       <c r="K42" t="n">
-        <v>123.2812656957629</v>
+        <v>374.1765495703618</v>
       </c>
       <c r="L42" t="n">
-        <v>527.8971837914347</v>
+        <v>411.6605258156091</v>
       </c>
       <c r="M42" t="n">
-        <v>1052.044097349466</v>
+        <v>935.8074393736401</v>
       </c>
       <c r="N42" t="n">
-        <v>1605.770633449017</v>
+        <v>1235.149615955897</v>
       </c>
       <c r="O42" t="n">
-        <v>2045.906556469361</v>
+        <v>1675.285538976241</v>
       </c>
       <c r="P42" t="n">
-        <v>2382.15137008419</v>
+        <v>2011.53035259107</v>
       </c>
       <c r="Q42" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="R42" t="n">
-        <v>2401.205164781653</v>
+        <v>2133.389965868492</v>
       </c>
       <c r="S42" t="n">
-        <v>2401.205164781653</v>
+        <v>1975.216993512408</v>
       </c>
       <c r="T42" t="n">
-        <v>2202.326616904432</v>
+        <v>1776.338445635187</v>
       </c>
       <c r="U42" t="n">
-        <v>1974.156992875271</v>
+        <v>1548.168821606027</v>
       </c>
       <c r="V42" t="n">
-        <v>1739.004884643529</v>
+        <v>1548.168821606027</v>
       </c>
       <c r="W42" t="n">
-        <v>1484.767527915327</v>
+        <v>1293.931464877825</v>
       </c>
       <c r="X42" t="n">
-        <v>1276.916027709794</v>
+        <v>1086.079964672292</v>
       </c>
       <c r="Y42" t="n">
-        <v>1069.155728944841</v>
+        <v>878.3196659073383</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.9216824998656</v>
+        <v>247.0359939395318</v>
       </c>
       <c r="C43" t="n">
-        <v>507.9216824998656</v>
+        <v>247.0359939395318</v>
       </c>
       <c r="D43" t="n">
-        <v>507.9216824998656</v>
+        <v>96.91935452719605</v>
       </c>
       <c r="E43" t="n">
-        <v>507.9216824998656</v>
+        <v>96.91935452719605</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7722761247705</v>
+        <v>96.91935452719605</v>
       </c>
       <c r="G43" t="n">
-        <v>205.7724758631029</v>
+        <v>96.91935452719605</v>
       </c>
       <c r="H43" t="n">
-        <v>48.02410329563306</v>
+        <v>96.91935452719605</v>
       </c>
       <c r="I43" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="J43" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="K43" t="n">
-        <v>104.3262963619012</v>
+        <v>99.97425979540151</v>
       </c>
       <c r="L43" t="n">
-        <v>231.9001539230596</v>
+        <v>227.54811735656</v>
       </c>
       <c r="M43" t="n">
-        <v>376.7980226410895</v>
+        <v>372.4459860745899</v>
       </c>
       <c r="N43" t="n">
-        <v>523.6851603255186</v>
+        <v>519.3331237590191</v>
       </c>
       <c r="O43" t="n">
-        <v>643.3429108347588</v>
+        <v>638.9908742682593</v>
       </c>
       <c r="P43" t="n">
-        <v>722.2101056817029</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="Q43" t="n">
-        <v>722.2101056817029</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="R43" t="n">
-        <v>722.2101056817029</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="S43" t="n">
-        <v>507.9216824998656</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="T43" t="n">
-        <v>507.9216824998656</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="U43" t="n">
-        <v>507.9216824998656</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="V43" t="n">
-        <v>507.9216824998656</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="W43" t="n">
-        <v>507.9216824998656</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="X43" t="n">
-        <v>507.9216824998656</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.9216824998656</v>
+        <v>428.6844587697715</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1251.00023448064</v>
+        <v>1499.771793842982</v>
       </c>
       <c r="C44" t="n">
-        <v>1251.00023448064</v>
+        <v>1199.816499584551</v>
       </c>
       <c r="D44" t="n">
-        <v>1251.00023448064</v>
+        <v>1199.816499584551</v>
       </c>
       <c r="E44" t="n">
-        <v>865.2119818823953</v>
+        <v>1199.816499584551</v>
       </c>
       <c r="F44" t="n">
-        <v>454.2260770927878</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="G44" t="n">
-        <v>48.02410329563306</v>
+        <v>370.8667866931305</v>
       </c>
       <c r="H44" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="I44" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="J44" t="n">
-        <v>163.7919595285828</v>
+        <v>159.4399229620831</v>
       </c>
       <c r="K44" t="n">
-        <v>320.4752540637133</v>
+        <v>159.4399229620831</v>
       </c>
       <c r="L44" t="n">
-        <v>737.7960321128081</v>
+        <v>576.7607010111781</v>
       </c>
       <c r="M44" t="n">
-        <v>1218.752352270844</v>
+        <v>1057.717021169214</v>
       </c>
       <c r="N44" t="n">
-        <v>1692.859050967575</v>
+        <v>1531.823719865945</v>
       </c>
       <c r="O44" t="n">
-        <v>2095.35692463309</v>
+        <v>1934.32159353146</v>
       </c>
       <c r="P44" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="Q44" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="R44" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="S44" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="T44" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="U44" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="V44" t="n">
-        <v>2401.205164781653</v>
+        <v>1852.540449113096</v>
       </c>
       <c r="W44" t="n">
-        <v>2401.205164781653</v>
+        <v>1499.771793842982</v>
       </c>
       <c r="X44" t="n">
-        <v>2027.739406520573</v>
+        <v>1499.771793842982</v>
       </c>
       <c r="Y44" t="n">
-        <v>1637.600074544761</v>
+        <v>1499.771793842982</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>692.5540489805135</v>
+        <v>931.8044378858776</v>
       </c>
       <c r="C45" t="n">
-        <v>692.5540489805135</v>
+        <v>757.3514086047506</v>
       </c>
       <c r="D45" t="n">
-        <v>659.1916577499735</v>
+        <v>608.4169989434994</v>
       </c>
       <c r="E45" t="n">
-        <v>499.9542027445181</v>
+        <v>449.1795439380439</v>
       </c>
       <c r="F45" t="n">
-        <v>353.4196447714031</v>
+        <v>302.6449859649289</v>
       </c>
       <c r="G45" t="n">
-        <v>215.5095317176692</v>
+        <v>164.734872911195</v>
       </c>
       <c r="H45" t="n">
-        <v>110.066749742611</v>
+        <v>59.29209093613687</v>
       </c>
       <c r="I45" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="J45" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="K45" t="n">
-        <v>48.02410329563306</v>
+        <v>298.9193871702319</v>
       </c>
       <c r="L45" t="n">
-        <v>374.8779946233014</v>
+        <v>703.5353052659038</v>
       </c>
       <c r="M45" t="n">
-        <v>899.0249081813323</v>
+        <v>1227.682218823935</v>
       </c>
       <c r="N45" t="n">
-        <v>1452.751444280884</v>
+        <v>1407.222599821494</v>
       </c>
       <c r="O45" t="n">
-        <v>1892.887367301227</v>
+        <v>1847.358522841838</v>
       </c>
       <c r="P45" t="n">
-        <v>2229.132180916056</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="Q45" t="n">
-        <v>2401.205164781653</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="R45" t="n">
-        <v>2350.991794193478</v>
+        <v>2183.603336456667</v>
       </c>
       <c r="S45" t="n">
-        <v>2192.818821837394</v>
+        <v>2025.430364100583</v>
       </c>
       <c r="T45" t="n">
-        <v>1993.940273960173</v>
+        <v>2025.430364100583</v>
       </c>
       <c r="U45" t="n">
-        <v>1765.770649931012</v>
+        <v>1797.260740071423</v>
       </c>
       <c r="V45" t="n">
-        <v>1530.61854169927</v>
+        <v>1562.10863183968</v>
       </c>
       <c r="W45" t="n">
-        <v>1276.381184971068</v>
+        <v>1307.871275111479</v>
       </c>
       <c r="X45" t="n">
-        <v>1068.529684765535</v>
+        <v>1100.019774905946</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.7693860005816</v>
+        <v>1100.019774905946</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>522.6853697071637</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="C46" t="n">
-        <v>522.6853697071637</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="D46" t="n">
-        <v>522.6853697071637</v>
+        <v>278.5678193574357</v>
       </c>
       <c r="E46" t="n">
-        <v>374.7722761247705</v>
+        <v>278.5678193574357</v>
       </c>
       <c r="F46" t="n">
-        <v>374.7722761247705</v>
+        <v>131.6778718595254</v>
       </c>
       <c r="G46" t="n">
-        <v>205.7724758631029</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="H46" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="I46" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="J46" t="n">
-        <v>48.02410329563306</v>
+        <v>43.67206672913334</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3262963619012</v>
+        <v>99.97425979540151</v>
       </c>
       <c r="L46" t="n">
-        <v>231.9001539230596</v>
+        <v>227.54811735656</v>
       </c>
       <c r="M46" t="n">
-        <v>376.7980226410895</v>
+        <v>372.4459860745899</v>
       </c>
       <c r="N46" t="n">
-        <v>523.6851603255186</v>
+        <v>519.3331237590191</v>
       </c>
       <c r="O46" t="n">
-        <v>643.3429108347588</v>
+        <v>638.9908742682593</v>
       </c>
       <c r="P46" t="n">
-        <v>722.2101056817029</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="Q46" t="n">
-        <v>722.2101056817029</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="R46" t="n">
-        <v>722.2101056817029</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="S46" t="n">
-        <v>722.2101056817029</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="T46" t="n">
-        <v>722.2101056817029</v>
+        <v>717.8580691152035</v>
       </c>
       <c r="U46" t="n">
-        <v>722.2101056817029</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="V46" t="n">
-        <v>722.2101056817029</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="W46" t="n">
-        <v>722.2101056817029</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="X46" t="n">
-        <v>722.2101056817029</v>
+        <v>428.6844587697715</v>
       </c>
       <c r="Y46" t="n">
-        <v>522.6853697071637</v>
+        <v>428.6844587697715</v>
       </c>
     </row>
   </sheetData>
@@ -8701,7 +8701,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>141.3034913644901</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>264.7035098197573</v>
+        <v>393.2705300454836</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8938,13 +8938,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714828</v>
+        <v>250.7872088760678</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>393.2705300454836</v>
       </c>
       <c r="N15" t="n">
-        <v>278.3408204133108</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9178,13 +9178,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627449</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719075</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.15938665394273</v>
+        <v>52.15938665394268</v>
       </c>
       <c r="K41" t="n">
-        <v>148.1280474409743</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11077,10 +11077,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>84.37501927208382</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>58.31748437003569</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>6.639660809448827</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>222.388475841236</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.51245019227988</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>185.1883252127122</v>
+        <v>26.92237113682273</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11314,10 +11314,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>264.6608321882948</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.3174843700358</v>
+        <v>58.31748437003569</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K45" t="n">
-        <v>6.639660809448827</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>292.2928435175971</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>101.3765611092179</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211495</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>116.9347799052774</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>26.99200187787129</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,16 +23390,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.4419362657602</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>174.7864364824051</v>
       </c>
       <c r="W12" t="n">
-        <v>107.4707906117783</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.424651744287</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1920051741669</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>138.4194590392561</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>53.31981779472805</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.73982821409211</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>151.8292424708639</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>118.5742443897009</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2881387593542</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>166.2659349629914</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>90.18746411820825</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.5449140062435</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>161.8021914044194</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>70.56170097936634</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>180.250161098925</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5691233149489</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.244650486378</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.9482177841047</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>20.65918012583339</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>79.63808778105255</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>66.13883027455778</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.1358088219282</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>51.04847948014714</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>47.06618669779689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.424651744287</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1920051741669</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>138.4194590392561</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>53.31981779472805</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.73982821409211</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>151.8292424708639</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>214.147052251815</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.5258259859112</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2881387593542</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>243.6103077223527</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>200.3735077361105</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23907,13 +23907,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>282.5902139777103</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>214.4501011005968</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>115.3834518935216</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>98.32758997849527</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>204.3633770359734</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>332.9555916784217</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,19 +24375,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>55.14106060940512</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>95.37935912336187</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>291.9393758386283</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>132.2758992500985</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>27.38738814000507</v>
+        <v>27.38738814000484</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>185.7515330091956</v>
+        <v>25.24910919451776</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,16 +24894,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>173.5802266919607</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>191.9302938044073</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>129.2097213330904</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>328.8326777863794</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>72.60755131498752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>114.5643656403379</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>254.7944307753862</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>227.264818708583</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>129.5086252349523</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>42.05485008526546</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>91.12202808867639</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787152</v>
       </c>
       <c r="V40" t="n">
-        <v>247.5838007587593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>302.3530477695293</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S41" t="n">
-        <v>113.3770584325128</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>80.82231771990351</v>
+        <v>99.63092978838048</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>13.60313571158716</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>82.25080687225615</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>68.31715045516091</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>11.64421596161185</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,16 +25924,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>114.4162982464042</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>45.95839601757468</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26028,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>80.18405517996281</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,7 +26079,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.05516473730097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>641948.1294802208</v>
+        <v>605208.68103622</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>641948.1294802208</v>
+        <v>605208.6810362199</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>684600.1344551368</v>
+        <v>684600.1344551366</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684600.1344551367</v>
+        <v>684600.1344551366</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684600.1344551367</v>
+        <v>684600.1344551368</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>684600.1344551366</v>
+        <v>684600.134455137</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684600.1344551366</v>
+        <v>684600.1344551367</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684600.1344551368</v>
+        <v>684600.1344551367</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638848.7710649723</v>
+        <v>605208.6810362203</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638848.7710649724</v>
+        <v>605208.6810362202</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377789</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="E2" t="n">
-        <v>402518.0483932052</v>
+        <v>388139.763690217</v>
       </c>
       <c r="F2" t="n">
-        <v>402518.0483932053</v>
+        <v>388139.7636902169</v>
       </c>
       <c r="G2" t="n">
-        <v>433728.9150236361</v>
+        <v>433728.9150236365</v>
       </c>
       <c r="H2" t="n">
-        <v>433728.9150236362</v>
+        <v>433728.9150236364</v>
       </c>
       <c r="I2" t="n">
         <v>433728.9150236365</v>
@@ -26346,16 +26346,16 @@
         <v>433728.9150236364</v>
       </c>
       <c r="M2" t="n">
-        <v>433728.9150236362</v>
+        <v>433728.9150236365</v>
       </c>
       <c r="N2" t="n">
-        <v>433728.9150236361</v>
+        <v>433728.9150236363</v>
       </c>
       <c r="O2" t="n">
-        <v>407456.9960766594</v>
+        <v>388139.7636902171</v>
       </c>
       <c r="P2" t="n">
-        <v>407456.9960766592</v>
+        <v>388139.7636902171</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>431549.0094381387</v>
+        <v>466474.3723111398</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>69796.01944102407</v>
+        <v>35188.79703475102</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>149597.4829710618</v>
+        <v>136040.6714645868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>105713.4357537098</v>
+        <v>88109.07502345179</v>
       </c>
       <c r="F4" t="n">
-        <v>105713.4357537098</v>
+        <v>88109.07502345179</v>
       </c>
       <c r="G4" t="n">
         <v>106808.022922681</v>
@@ -26447,19 +26447,19 @@
         <v>106808.022922681</v>
       </c>
       <c r="L4" t="n">
-        <v>106808.0229226811</v>
+        <v>106808.022922681</v>
       </c>
       <c r="M4" t="n">
         <v>106808.022922681</v>
       </c>
       <c r="N4" t="n">
-        <v>106808.022922681</v>
+        <v>106808.0229226811</v>
       </c>
       <c r="O4" t="n">
-        <v>96032.27410451484</v>
+        <v>88109.07502345179</v>
       </c>
       <c r="P4" t="n">
-        <v>96032.27410451486</v>
+        <v>88109.07502345179</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43344.70451673232</v>
+        <v>41425.58259407381</v>
       </c>
       <c r="F5" t="n">
-        <v>43344.70451673232</v>
+        <v>41425.58259407381</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26505,13 +26505,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="O5" t="n">
-        <v>44733.13038461361</v>
+        <v>41425.58259407383</v>
       </c>
       <c r="P5" t="n">
-        <v>44733.13038461361</v>
+        <v>41425.58259407383</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171388.4899227113</v>
+        <v>171428.212123524</v>
       </c>
       <c r="C6" t="n">
-        <v>171388.4899227112</v>
+        <v>171428.2121235242</v>
       </c>
       <c r="D6" t="n">
-        <v>171388.4899227112</v>
+        <v>171428.2121235243</v>
       </c>
       <c r="E6" t="n">
-        <v>-185197.8772822092</v>
+        <v>-208628.0714508084</v>
       </c>
       <c r="F6" t="n">
-        <v>246351.1321559296</v>
+        <v>257846.3008603313</v>
       </c>
       <c r="G6" t="n">
-        <v>201824.9808507024</v>
+        <v>241893.7756282131</v>
       </c>
       <c r="H6" t="n">
-        <v>271621.0002917266</v>
+        <v>277082.572662964</v>
       </c>
       <c r="I6" t="n">
-        <v>271621.0002917268</v>
+        <v>277082.5726629641</v>
       </c>
       <c r="J6" t="n">
-        <v>271621.0002917266</v>
+        <v>277082.5726629638</v>
       </c>
       <c r="K6" t="n">
-        <v>271621.0002917266</v>
+        <v>277082.5726629639</v>
       </c>
       <c r="L6" t="n">
-        <v>271621.0002917267</v>
+        <v>277082.5726629639</v>
       </c>
       <c r="M6" t="n">
-        <v>122023.5173206647</v>
+        <v>141041.9011983773</v>
       </c>
       <c r="N6" t="n">
-        <v>271621.0002917265</v>
+        <v>277082.5726629639</v>
       </c>
       <c r="O6" t="n">
-        <v>259747.4472101458</v>
+        <v>257846.3008603315</v>
       </c>
       <c r="P6" t="n">
-        <v>259747.4472101456</v>
+        <v>257846.3008603315</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>314.0544042225317</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>314.0544042225317</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>600.3012911954133</v>
+        <v>545.9008341141666</v>
       </c>
       <c r="F4" t="n">
-        <v>600.3012911954133</v>
+        <v>545.9008341141666</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>600.3012911954132</v>
+        <v>545.9008341141667</v>
       </c>
       <c r="P4" t="n">
-        <v>600.3012911954132</v>
+        <v>545.9008341141667</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>314.0544042225317</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63.68925999455496</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>600.3012911954133</v>
+        <v>545.9008341141666</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>73.98598155914226</v>
+        <v>128.386438640389</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>600.3012911954133</v>
+        <v>545.9008341141666</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>600.3012911954133</v>
+        <v>545.9008341141666</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>73.98598155914226</v>
+        <v>128.386438640389</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.262530268231282</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>12.92988810952362</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>48.67369816598655</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>107.1556783532949</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>160.5985846075251</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>199.2367453039082</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>221.6892679615663</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>225.2764320861784</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>212.7221467314536</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>181.5534307344938</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.339065503461</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>79.30741696178335</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>28.76990848732037</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>5.52672624918244</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1010024214585026</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6755132468182757</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>6.524035831113348</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>23.2578025768573</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>63.82118793733543</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>109.0805754741599</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>146.6722951041173</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>171.1596503012797</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>175.6897369433199</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>160.7217855269781</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>128.9934023683074</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>86.22867340087323</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>41.94107685069962</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>12.54736228190963</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>2.722792429061382</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04444166097488658</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5663276141717783</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>5.035167333272724</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>17.03101588800221</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>40.03936232194473</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>65.79697190104842</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>84.19747092877513</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>88.7744277378543</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>86.66357026685047</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>80.04783404675285</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>68.49475071764851</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.42221503760228</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>25.46414890630559</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>9.869545785157261</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.419763442370325</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03089059713664249</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.262530268231282</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>12.92988810952362</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>48.67369816598655</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>107.1556783532949</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>160.5985846075251</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>199.2367453039082</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>221.6892679615663</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>225.2764320861784</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>212.7221467314536</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>181.5534307344938</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.339065503461</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>79.30741696178335</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>28.76990848732037</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>5.52672624918244</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1010024214585026</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6755132468182757</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>6.524035831113348</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>23.2578025768573</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>63.82118793733543</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>109.0805754741599</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>146.6722951041173</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>171.1596503012797</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>175.6897369433199</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>160.7217855269781</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>128.9934023683074</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>86.22867340087323</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>41.94107685069962</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>12.54736228190963</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>2.722792429061382</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04444166097488658</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5663276141717783</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>5.035167333272724</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>17.03101588800221</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>40.03936232194473</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>65.79697190104842</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>84.19747092877513</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>88.7744277378543</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>86.66357026685047</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>80.04783404675285</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>68.49475071764851</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.42221503760228</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>25.46414890630559</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>9.869545785157261</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.419763442370325</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03089059713664249</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,25 +34304,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,25 +34541,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.20638899868236</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>264.6541461337093</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>381.1315448843715</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>440.856568227126</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>433.2102929015717</v>
+        <v>41.54873083723953</v>
       </c>
       <c r="O11" t="n">
-        <v>363.4241165725123</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>272.1191431507069</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>126.3483662889162</v>
+        <v>82.98600699445436</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>63.07459661107757</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>235.7043735123795</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>378.9582606277023</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>293.7291261990187</v>
+        <v>457.0067931217775</v>
       </c>
       <c r="N12" t="n">
-        <v>523.6903992035401</v>
+        <v>79.97735909033673</v>
       </c>
       <c r="O12" t="n">
-        <v>411.9878603592632</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>313.4817635939144</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.3241870507008</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>43.52748007516557</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>111.7874961890913</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>128.3583046996949</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>130.7957426460791</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>104.6329619607925</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>65.773309982542</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.20638899868236</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>264.6541461337093</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>381.1315448843715</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>440.856568227126</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>433.2102929015717</v>
+        <v>41.54873083723953</v>
       </c>
       <c r="O14" t="n">
-        <v>363.4241165725123</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>272.119143150707</v>
+        <v>237.926117016265</v>
       </c>
       <c r="Q14" t="n">
-        <v>126.3483662889162</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>63.07459661107757</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>235.7043735123795</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>378.9582606277023</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>494.7306801292613</v>
+        <v>457.0067931217775</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6888452732974</v>
+        <v>79.97735909033673</v>
       </c>
       <c r="O15" t="n">
-        <v>411.9878603592632</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>313.4817635939144</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>156.3241870507008</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>43.52748007516557</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>111.7874961890913</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>128.3583046996949</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>130.7957426460791</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>104.6329619607925</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>65.773309982542</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530448</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624587</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343413</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>121.2056763041514</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>71.51392741228102</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>37.8626022679266</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>302.3658349315727</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.24625727016487</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>158.2659540758894</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>251.7997403284919</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1554457855236</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>181.3539201995547</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
